--- a/InvoiceDispcherProcess/Config_DispatchInv.xlsx
+++ b/InvoiceDispcherProcess/Config_DispatchInv.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">==== Creating Queue Transaction for "{0}" </t>
+  </si>
+  <si>
+    <t>Temp</t>
   </si>
 </sst>
 </file>
@@ -519,7 +522,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,10 +556,12 @@
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">

--- a/InvoiceDispcherProcess/Config_DispatchInv.xlsx
+++ b/InvoiceDispcherProcess/Config_DispatchInv.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">==== Creating Queue Transaction for "{0}" </t>
-  </si>
-  <si>
-    <t>Temp</t>
   </si>
 </sst>
 </file>
@@ -522,7 +519,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,7 +554,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>

--- a/InvoiceDispcherProcess/Config_DispatchInv.xlsx
+++ b/InvoiceDispcherProcess/Config_DispatchInv.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -119,21 +119,12 @@
     <t>Transaction Failed - {0}</t>
   </si>
   <si>
-    <t>Date,Log Type,Transaction File Name,Status</t>
-  </si>
-  <si>
-    <t>InvoiceDispatcherProcess\Success</t>
-  </si>
-  <si>
     <t>InvoiceFailedFolder</t>
   </si>
   <si>
     <t>InvoiceSuccessFolder</t>
   </si>
   <si>
-    <t>InvoiceDispatcherProcess\Failed</t>
-  </si>
-  <si>
     <t>LogMessage_InvoiceMoveToFolder</t>
   </si>
   <si>
@@ -141,6 +132,48 @@
   </si>
   <si>
     <t xml:space="preserve">==== Creating Queue Transaction for "{0}" </t>
+  </si>
+  <si>
+    <t>StartDateTime,EndDateTime,Log Type,Invoice File Name,Transaction File Name,Status</t>
+  </si>
+  <si>
+    <t>InvoicePostingDelay</t>
+  </si>
+  <si>
+    <t>LogMessage_InvoicePostingDelay</t>
+  </si>
+  <si>
+    <t>Invoice date is less than 10 days !!</t>
+  </si>
+  <si>
+    <t>InvoiceDispatcherProcess\Data\Failed</t>
+  </si>
+  <si>
+    <t>Shared Folder\InvoiceFolder</t>
+  </si>
+  <si>
+    <t>InvoiceDispatcherProcess\Data\Success</t>
+  </si>
+  <si>
+    <t>Move xls file to Success folder after adding in queue</t>
+  </si>
+  <si>
+    <t>Move xls file to Failed folder if add queue process failed</t>
+  </si>
+  <si>
+    <t>SAPInvFolder</t>
+  </si>
+  <si>
+    <t>Store all invoice to upload in SAP after posting</t>
+  </si>
+  <si>
+    <t>SAPInvSourceFolder</t>
+  </si>
+  <si>
+    <t>Extract Invoices\Data\Success</t>
+  </si>
+  <si>
+    <t>Source path to pickup invoice PDF file</t>
   </si>
 </sst>
 </file>
@@ -193,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -202,6 +235,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +589,7 @@
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -562,125 +598,167 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/InvoiceDispcherProcess/Config_DispatchInv.xlsx
+++ b/InvoiceDispcherProcess/Config_DispatchInv.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Source path to pickup invoice PDF file</t>
+  </si>
+  <si>
+    <t>InvoicePendingFolder</t>
+  </si>
+  <si>
+    <t>InvoiceDispatcherProcess\Data\Pending</t>
   </si>
 </sst>
 </file>
@@ -552,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,156 +615,165 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/InvoiceDispcherProcess/Config_DispatchInv.xlsx
+++ b/InvoiceDispcherProcess/Config_DispatchInv.xlsx
@@ -149,9 +149,6 @@
     <t>InvoiceDispatcherProcess\Data\Failed</t>
   </si>
   <si>
-    <t>Shared Folder\InvoiceFolder</t>
-  </si>
-  <si>
     <t>InvoiceDispatcherProcess\Data\Success</t>
   </si>
   <si>
@@ -180,13 +177,16 @@
   </si>
   <si>
     <t>InvoiceDispatcherProcess\Data\Pending</t>
+  </si>
+  <si>
+    <t>\\DDCPRDBOT01\InvoiceFolder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -211,6 +211,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,10 +235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -244,8 +251,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,18 +618,18 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -630,29 +641,29 @@
         <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -778,7 +789,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>